--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>18.359437</v>
+        <v>0.05881766666666666</v>
       </c>
       <c r="H2">
-        <v>55.078311</v>
+        <v>0.176453</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.19138166666667</v>
+        <v>35.991783</v>
       </c>
       <c r="N2">
-        <v>60.574145</v>
+        <v>107.975349</v>
       </c>
       <c r="O2">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="P2">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="Q2">
-        <v>370.7023996521217</v>
+        <v>2.116952695233</v>
       </c>
       <c r="R2">
-        <v>3336.321596869095</v>
+        <v>19.052574257097</v>
       </c>
       <c r="S2">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="T2">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.359437</v>
+        <v>0.05881766666666666</v>
       </c>
       <c r="H3">
-        <v>55.078311</v>
+        <v>0.176453</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>148.464943</v>
       </c>
       <c r="O3">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="P3">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="Q3">
-        <v>908.5775892390303</v>
+        <v>2.910787176353222</v>
       </c>
       <c r="R3">
-        <v>8177.198303151273</v>
+        <v>26.197084587179</v>
       </c>
       <c r="S3">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="T3">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.359437</v>
+        <v>0.05881766666666666</v>
       </c>
       <c r="H4">
-        <v>55.078311</v>
+        <v>0.176453</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.582150000000001</v>
+        <v>6.58215</v>
       </c>
       <c r="N4">
         <v>19.74645</v>
       </c>
       <c r="O4">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="P4">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="Q4">
-        <v>120.84456824955</v>
+        <v>0.38714670465</v>
       </c>
       <c r="R4">
-        <v>1087.60111424595</v>
+        <v>3.48432034185</v>
       </c>
       <c r="S4">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="T4">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
     </row>
   </sheetData>
